--- a/Team-Data/2014-15/1-14-2014-15.xlsx
+++ b/Team-Data/2014-15/1-14-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.795</v>
+        <v>0.789</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
@@ -684,67 +751,67 @@
         <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L2" t="n">
         <v>9.6</v>
       </c>
       <c r="M2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
         <v>14.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -774,22 +841,22 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -807,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -819,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="H3" t="n">
         <v>48.7</v>
       </c>
       <c r="I3" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O3" t="n">
         <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
         <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -935,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -950,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -971,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -980,28 +1047,28 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1030,94 +1097,94 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.41</v>
+        <v>0.421</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
         <v>36.2</v>
       </c>
       <c r="J4" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>6.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
         <v>4.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1126,25 +1193,25 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>17</v>
@@ -1153,13 +1220,13 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU4" t="n">
         <v>20</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
@@ -1168,13 +1235,13 @@
         <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
@@ -1230,40 +1297,40 @@
         <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N5" t="n">
         <v>0.313</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
         <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
@@ -1272,25 +1339,25 @@
         <v>5.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
         <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1305,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1317,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>16</v>
       </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
         <v>23</v>
@@ -1338,10 +1405,10 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>0.667</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.444</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P6" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.7</v>
+        <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X6" t="n">
         <v>6.7</v>
@@ -1460,28 +1527,28 @@
         <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1496,13 +1563,13 @@
         <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,19 +1581,19 @@
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1666,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1684,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1699,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
         <v>24</v>
@@ -1711,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1776,19 +1843,19 @@
         <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>87.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
@@ -1800,16 +1867,16 @@
         <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>12.1</v>
@@ -1818,73 +1885,73 @@
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD8" t="n">
         <v>5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="n">
         <v>2</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.474</v>
+        <v>0.459</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,40 +2025,40 @@
         <v>37.9</v>
       </c>
       <c r="J9" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O9" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R9" t="n">
         <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V9" t="n">
         <v>14.7</v>
@@ -2000,28 +2067,28 @@
         <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
         <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,16 +2106,16 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>4</v>
@@ -2057,22 +2124,22 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2087,13 +2154,13 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB9" t="n">
         <v>9</v>
       </c>
-      <c r="BB9" t="n">
-        <v>8</v>
-      </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.345</v>
@@ -2161,64 +2228,64 @@
         <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2227,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
@@ -2236,13 +2303,13 @@
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
         <v>10</v>
@@ -2257,16 +2324,16 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.861</v>
+        <v>0.857</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.484</v>
@@ -2334,7 +2401,7 @@
         <v>26.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
@@ -2349,19 +2416,19 @@
         <v>9.9</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X11" t="n">
         <v>6.4</v>
@@ -2370,16 +2437,16 @@
         <v>3.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
         <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>30</v>
@@ -2400,25 +2467,25 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2436,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -2489,97 +2556,97 @@
         <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.711</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.712</v>
+        <v>0.707</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2597,25 +2664,25 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,16 +2691,16 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -2752,10 +2819,10 @@
         <v>21</v>
       </c>
       <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
         <v>22</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2764,13 +2831,13 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
         <v>22</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>19</v>
@@ -2806,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>18</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
         <v>18.8</v>
       </c>
       <c r="P14" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
         <v>8.6</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
         <v>40.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2946,25 +3013,25 @@
         <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
@@ -2982,10 +3049,10 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.316</v>
+        <v>0.308</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3092,49 +3159,49 @@
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
@@ -3143,34 +3210,34 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>8</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.711</v>
+        <v>0.703</v>
       </c>
       <c r="H16" t="n">
         <v>49.2</v>
@@ -3244,64 +3311,64 @@
         <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.774</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
         <v>101.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3340,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3349,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX16" t="n">
         <v>22</v>
@@ -3361,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>74.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L17" t="n">
         <v>7.2</v>
       </c>
       <c r="M17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N17" t="n">
         <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T17" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X17" t="n">
         <v>4</v>
@@ -3468,16 +3535,16 @@
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.1</v>
+        <v>-3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3498,19 +3565,19 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,10 +3595,10 @@
         <v>27</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3540,10 +3607,10 @@
         <v>7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3677,13 +3744,13 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>8</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
@@ -3722,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3877,13 +3944,13 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>27</v>
@@ -3892,22 +3959,22 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -3960,49 +4027,49 @@
         <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4038,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
@@ -4089,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4399,25 +4466,25 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>12</v>
@@ -4426,7 +4493,7 @@
         <v>21</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,22 +4505,22 @@
         <v>30</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -4491,109 +4558,109 @@
         <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.366</v>
+        <v>0.341</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.9</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG23" t="n">
         <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,22 +4687,22 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.184</v>
+        <v>0.189</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,43 +4755,43 @@
         <v>33.2</v>
       </c>
       <c r="J24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M24" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.298</v>
+        <v>0.301</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.678</v>
+        <v>0.68</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T24" t="n">
         <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V24" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="W24" t="n">
         <v>9.9</v>
@@ -4733,22 +4800,22 @@
         <v>5.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.7</v>
+        <v>-12.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
@@ -4817,7 +4884,7 @@
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -4948,10 +5015,10 @@
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4966,7 +5033,7 @@
         <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4975,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4990,13 +5057,13 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.769</v>
+        <v>0.789</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
         <v>86.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M26" t="n">
         <v>27.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O26" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P26" t="n">
         <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
@@ -5082,7 +5149,7 @@
         <v>35.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
         <v>22.9</v>
@@ -5094,7 +5161,7 @@
         <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
@@ -5106,22 +5173,22 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
@@ -5130,13 +5197,13 @@
         <v>6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5175,7 +5242,7 @@
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -5309,13 +5376,13 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5339,13 +5406,13 @@
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5369,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5416,25 +5483,25 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.757</v>
@@ -5443,40 +5510,40 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5497,10 +5564,10 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5521,31 +5588,31 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
         <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,76 +5665,76 @@
         <v>39.4</v>
       </c>
       <c r="J29" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.462</v>
       </c>
       <c r="L29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N29" t="n">
         <v>0.361</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
         <v>11.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5676,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5706,22 +5773,22 @@
         <v>25</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX29" t="n">
         <v>20</v>
       </c>
-      <c r="AX29" t="n">
-        <v>21</v>
-      </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>22</v>
@@ -5733,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5873,7 +5940,7 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>13</v>
@@ -5882,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,16 +5958,16 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
         <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,10 +6029,10 @@
         <v>38.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L31" t="n">
         <v>6.1</v>
@@ -5974,16 +6041,16 @@
         <v>15.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5995,46 +6062,46 @@
         <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG31" t="n">
         <v>7</v>
       </c>
-      <c r="AE31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>5</v>
-      </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
@@ -6043,7 +6110,7 @@
         <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,13 +6122,13 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP31" t="n">
         <v>25</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AQ31" t="n">
         <v>24</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
@@ -6076,10 +6143,10 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>9</v>
@@ -6088,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-14-2014-15</t>
+          <t>2015-01-14</t>
         </is>
       </c>
     </row>
